--- a/NformTester/NformTester/Keywordscripts/700.30.110_ExportDataLogHistoryForDevicesWithTheUser_definedFilenameAndLocation.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.110_ExportDataLogHistoryForDevicesWithTheUser_definedFilenameAndLocation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1204,12 +1204,12 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7407" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7407" uniqueCount="839">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3769,6 +3769,10 @@
   </si>
   <si>
     <t>Sashimi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4001,10 +4005,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4447,7 +4451,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4734,7 +4738,7 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5252,7 +5256,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>810</v>
+        <v>838</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>812</v>

--- a/NformTester/NformTester/Keywordscripts/700.30.110_ExportDataLogHistoryForDevicesWithTheUser_definedFilenameAndLocation.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.110_ExportDataLogHistoryForDevicesWithTheUser_definedFilenameAndLocation.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7407" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7413" uniqueCount="840">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3764,15 +3764,19 @@
     <t>Result</t>
   </si>
   <si>
-    <t>62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sashimi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteLocalFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3933,7 +3937,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3947,8 +3951,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4003,11 +4010,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="常规 2 2 2" xfId="4"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -4735,10 +4747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4832,30 +4844,24 @@
         <v>829</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>782</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>0</v>
+      <c r="D3" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>838</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>785</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -4873,27 +4879,31 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+        <v>764</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>785</v>
+      </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="7"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>832</v>
       </c>
@@ -4903,12 +4913,18 @@
       <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="D5" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -4918,7 +4934,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="15">
       <c r="A6" s="3" t="s">
         <v>833</v>
       </c>
@@ -4928,25 +4944,19 @@
       <c r="C6" s="5">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D6" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="16"/>
+      <c r="N6" s="7"/>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
@@ -4954,7 +4964,7 @@
         <v>765</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -4966,7 +4976,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>2</v>
@@ -4991,11 +5001,11 @@
       <c r="D8" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>811</v>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>2</v>
@@ -5021,10 +5031,10 @@
         <v>810</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>2</v>
@@ -5055,15 +5065,13 @@
         <v>812</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>381</v>
+        <v>166</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>821</v>
-      </c>
-      <c r="I10" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -5084,13 +5092,15 @@
         <v>812</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>607</v>
+        <v>381</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="I11" s="11"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -5113,10 +5123,10 @@
         <v>812</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>166</v>
+        <v>607</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -5136,15 +5146,17 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="F13" s="5">
-        <v>3</v>
-      </c>
-      <c r="G13" s="5"/>
+        <v>810</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -5163,21 +5175,17 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>812</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>813</v>
-      </c>
-      <c r="I14" s="11"/>
+        <v>779</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -5200,13 +5208,13 @@
         <v>812</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="5"/>
@@ -5231,15 +5239,15 @@
         <v>812</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>519</v>
+        <v>255</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="I16" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="I16" s="11"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -5256,19 +5264,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>838</v>
+        <v>810</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>812</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>608</v>
+        <v>519</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -5287,18 +5295,20 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>810</v>
+        <v>837</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>812</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>816</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -5316,15 +5326,17 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="F19" s="5">
-        <v>3</v>
-      </c>
-      <c r="G19" s="5"/>
+        <v>810</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -5345,17 +5357,15 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>817</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>2</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="F20" s="5">
+        <v>3</v>
+      </c>
+      <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -5377,10 +5387,10 @@
         <v>810</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>818</v>
+        <v>17</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>2</v>
@@ -5402,18 +5412,20 @@
       <c r="C22" s="5">
         <v>21</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>819</v>
+      <c r="D22" s="8" t="s">
+        <v>810</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="F22" s="11">
-        <v>5</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+        <v>811</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -5421,45 +5433,43 @@
       <c r="N22" s="16"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="15">
+    <row r="23" spans="1:15">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="5">
         <v>22</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="D23" s="20" t="s">
+        <v>819</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="F23" s="11">
+        <v>5</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="7"/>
+      <c r="N23" s="16"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="15">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="5">
         <v>23</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D24" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -5480,7 +5490,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>798</v>
+        <v>22</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>2</v>
@@ -5502,17 +5512,15 @@
         <v>797</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>577</v>
+        <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>578</v>
+        <v>798</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>821</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -5532,12 +5540,14 @@
         <v>577</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>174</v>
+        <v>578</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>821</v>
+      </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -5554,10 +5564,10 @@
         <v>797</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>525</v>
+        <v>174</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>2</v>
@@ -5579,10 +5589,10 @@
         <v>797</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>2</v>
@@ -5607,14 +5617,12 @@
         <v>575</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>799</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -5634,12 +5642,14 @@
         <v>575</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>799</v>
+      </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -5656,7 +5666,7 @@
         <v>797</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>17</v>
@@ -5681,10 +5691,10 @@
         <v>797</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>577</v>
+        <v>518</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>2</v>
@@ -5703,15 +5713,17 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="F34" s="5">
-        <v>2</v>
-      </c>
-      <c r="G34" s="5"/>
+        <v>577</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -5721,15 +5733,19 @@
       <c r="N34" s="7"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="3:15" ht="15">
+    <row r="35" spans="3:15">
       <c r="C35" s="5">
         <v>34</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="D35" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="F35" s="5">
+        <v>2</v>
+      </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -5740,22 +5756,16 @@
       <c r="N35" s="7"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="3:15">
+    <row r="36" spans="3:15" ht="15">
       <c r="C36" s="5">
         <v>35</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>786</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D36" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5776,7 +5786,7 @@
         <v>19</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>2</v>
@@ -5801,7 +5811,7 @@
         <v>19</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>2</v>
@@ -5822,11 +5832,11 @@
       <c r="D39" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>708</v>
+      <c r="E39" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>2</v>
@@ -5851,12 +5861,12 @@
         <v>708</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>709</v>
+        <v>166</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="11"/>
+      <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -5876,12 +5886,12 @@
         <v>708</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="5"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -5901,7 +5911,7 @@
         <v>708</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>2</v>
@@ -5926,7 +5936,7 @@
         <v>708</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>166</v>
+        <v>713</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>2</v>
@@ -5951,12 +5961,12 @@
         <v>708</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>715</v>
+        <v>166</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="11"/>
+      <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -5976,7 +5986,7 @@
         <v>708</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>166</v>
+        <v>715</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>2</v>
@@ -6001,20 +6011,14 @@
         <v>708</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>356</v>
+        <v>166</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>802</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -6044,7 +6048,7 @@
         <v>793</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -6063,7 +6067,7 @@
         <v>708</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>694</v>
+        <v>356</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>7</v>
@@ -6075,7 +6079,7 @@
         <v>793</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -6094,16 +6098,20 @@
         <v>708</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>356</v>
+        <v>694</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
+        <v>792</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>795</v>
+      </c>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -6121,12 +6129,14 @@
         <v>708</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>166</v>
+        <v>356</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>824</v>
+      </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -6146,20 +6156,14 @@
         <v>708</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="J51" s="5" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -6171,18 +6175,26 @@
         <v>51</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="F52" s="5">
-        <v>10</v>
-      </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
+        <v>708</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="J52" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -6194,17 +6206,15 @@
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>708</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>801</v>
+      </c>
+      <c r="F53" s="5">
+        <v>10</v>
+      </c>
+      <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -6214,16 +6224,22 @@
       <c r="N53" s="7"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="3:15" ht="15">
+    <row r="54" spans="3:15">
       <c r="C54" s="5">
         <v>53</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
+      <c r="D54" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
@@ -6233,19 +6249,15 @@
       <c r="N54" s="7"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="3:15">
+    <row r="55" spans="3:15" ht="15">
       <c r="C55" s="5">
         <v>54</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="F55" s="5">
-        <v>2</v>
-      </c>
+      <c r="D55" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -6256,15 +6268,19 @@
       <c r="N55" s="7"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="3:15" ht="15">
+    <row r="56" spans="3:15">
       <c r="C56" s="5">
         <v>55</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="5"/>
+      <c r="D56" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="F56" s="5">
+        <v>2</v>
+      </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -6274,19 +6290,15 @@
       <c r="M56" s="5"/>
       <c r="N56" s="7"/>
     </row>
-    <row r="57" spans="3:15">
+    <row r="57" spans="3:15" ht="15">
       <c r="C57" s="5">
         <v>56</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="F57" s="5">
-        <v>5</v>
-      </c>
+      <c r="D57" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -6302,19 +6314,17 @@
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
+        <v>801</v>
+      </c>
+      <c r="F58" s="5">
+        <v>5</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -6326,13 +6336,13 @@
         <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>2</v>
@@ -6353,25 +6363,23 @@
         <v>789</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>790</v>
+        <v>19</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>578</v>
+        <v>78</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="I60" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="16"/>
+      <c r="N60" s="7"/>
     </row>
-    <row r="61" spans="3:15" ht="14.25">
+    <row r="61" spans="3:15">
       <c r="C61" s="5">
         <v>60</v>
       </c>
@@ -6382,12 +6390,14 @@
         <v>790</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>184</v>
+        <v>578</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>788</v>
+      </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
@@ -6395,23 +6405,23 @@
       <c r="M61" s="5"/>
       <c r="N61" s="16"/>
     </row>
-    <row r="62" spans="3:15">
+    <row r="62" spans="3:15" ht="14.25">
       <c r="C62" s="5">
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>585</v>
+      <c r="E62" s="11" t="s">
+        <v>790</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H62" s="11"/>
+      <c r="H62" s="17"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -6426,26 +6436,64 @@
       <c r="D63" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E63" s="11" t="s">
-        <v>790</v>
+      <c r="E63" s="5" t="s">
+        <v>585</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
+      <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
-      <c r="N63" s="7"/>
+      <c r="N63" s="16"/>
+    </row>
+    <row r="64" spans="3:15">
+      <c r="C64" s="5">
+        <v>63</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="7"/>
+    </row>
+    <row r="65" spans="3:6">
+      <c r="C65" s="5">
+        <v>64</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>824</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N63">
+  <conditionalFormatting sqref="N2:N64">
     <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6454,16 +6502,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G61:G63 G2:G59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G62:G64 G2:G60">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D58 D3:D4 D6:D22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D59 D3:D5 D7:D23 D65">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E65">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F64">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/700.30.110_ExportDataLogHistoryForDevicesWithTheUser_definedFilenameAndLocation.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.110_ExportDataLogHistoryForDevicesWithTheUser_definedFilenameAndLocation.xlsx
@@ -3715,10 +3715,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Add device</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3777,6 +3773,10 @@
   </si>
   <si>
     <t>64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3816,6 +3816,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4749,8 +4750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4771,10 +4772,10 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>826</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>757</v>
@@ -4816,10 +4817,10 @@
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>827</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>828</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -4841,10 +4842,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4853,10 +4854,10 @@
         <v>779</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="5"/>
@@ -4870,10 +4871,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
@@ -4905,7 +4906,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B5" s="10">
         <v>41106</v>
@@ -4936,7 +4937,7 @@
     </row>
     <row r="6" spans="1:15" ht="15">
       <c r="A6" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B6" s="10">
         <v>41800</v>
@@ -4945,7 +4946,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4964,7 +4965,7 @@
         <v>765</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -4992,7 +4993,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
@@ -5021,7 +5022,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="5">
@@ -5098,7 +5099,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="5"/>
@@ -5295,7 +5296,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>812</v>
@@ -5545,8 +5546,8 @@
       <c r="G27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>821</v>
+      <c r="H27" s="11" t="s">
+        <v>839</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -5761,7 +5762,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -6135,7 +6136,7 @@
         <v>4</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -6485,10 +6486,10 @@
         <v>779</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
   </sheetData>
